--- a/data/trans_camb/P12_2_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P12_2_R-Estudios-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-7.629345676977456</v>
+        <v>-7.84272697002372</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.395133919934458</v>
+        <v>-6.105501242137803</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-7.847702453113722</v>
+        <v>-7.230221597835072</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-9.566833366859001</v>
+        <v>-9.657592987427224</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-7.713100662905477</v>
+        <v>-7.591575225202317</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-10.38477505409981</v>
+        <v>-10.40043941069029</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-7.551627811613779</v>
+        <v>-7.795616178371626</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-5.575474429228917</v>
+        <v>-5.777750981273931</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-7.97790629233015</v>
+        <v>-7.834380665392603</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5159822910455768</v>
+        <v>0.7123650540408241</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.158104053548933</v>
+        <v>2.35190812969769</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9487433493748902</v>
+        <v>1.456830166435282</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-2.445676529898428</v>
+        <v>-1.798611061179815</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.133572332707296</v>
+        <v>1.099504719473867</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-2.694273353626444</v>
+        <v>-2.75373853640168</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-1.891762536674402</v>
+        <v>-2.028032720726971</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2675496868327431</v>
+        <v>0.506807203244636</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-2.131724384584183</v>
+        <v>-2.050779462652816</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2356662715094525</v>
+        <v>-0.2340190862391167</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1929673485152834</v>
+        <v>-0.1891300859256906</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2437245914020966</v>
+        <v>-0.2242946867080181</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2231495803354176</v>
+        <v>-0.2210771044100009</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1767521390581219</v>
+        <v>-0.1770426222738784</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2367172386097458</v>
+        <v>-0.2402704976805514</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1976528348104803</v>
+        <v>-0.203373527960934</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1483066071591046</v>
+        <v>-0.1532644640194238</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.2069576177286638</v>
+        <v>-0.2045676766862398</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.01821169925529938</v>
+        <v>0.02597826757855299</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.07268378995010899</v>
+        <v>0.08076499315865258</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.03108069062061252</v>
+        <v>0.05146497092452519</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.06111751397354971</v>
+        <v>-0.04421315709990261</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.02830826963014767</v>
+        <v>0.02716851171058571</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.06743446613606942</v>
+        <v>-0.07055552739229976</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.05263302587488906</v>
+        <v>-0.05786809293039704</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.007512853491663919</v>
+        <v>0.01417568360735326</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.06134132248375734</v>
+        <v>-0.05809366214623005</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>-3.398248820060934</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-0.2541486041648888</v>
+        <v>-0.254148604164886</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.365472008569639</v>
+        <v>-3.26673548038498</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.492911415909825</v>
+        <v>-4.414161515827477</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.048230902154931</v>
+        <v>-2.020087322208839</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.383962481619063</v>
+        <v>-4.154027849366818</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-7.690827887640856</v>
+        <v>-7.443099982271511</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-3.447542672994428</v>
+        <v>-3.722625945751843</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-3.168803844644889</v>
+        <v>-2.963481456150184</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-5.133880004376767</v>
+        <v>-5.009148286942199</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.954880794850848</v>
+        <v>-2.094925865487021</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.562434374414073</v>
+        <v>1.459570919306102</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.01119816077035008</v>
+        <v>0.3179151812722242</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.600595210139951</v>
+        <v>2.66288394083968</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.357204605434995</v>
+        <v>1.391054658652783</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-2.358114658141352</v>
+        <v>-1.957393200335366</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.724179849768239</v>
+        <v>1.603903172535535</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5298351306935953</v>
+        <v>0.5673789711626031</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-1.635065497283763</v>
+        <v>-1.74676362945323</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.507364066364345</v>
+        <v>1.341182669392311</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>-0.1936549927936001</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.01448309076648853</v>
+        <v>-0.01448309076648838</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.217945366160324</v>
+        <v>-0.207103114315108</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2910438055953756</v>
+        <v>-0.2901854136317663</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1349352380763121</v>
+        <v>-0.1305043957403482</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1913038647469278</v>
+        <v>-0.1874821583901621</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3335147592584375</v>
+        <v>-0.3283207626769038</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.150417645122515</v>
+        <v>-0.1600473471152195</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1671242366980394</v>
+        <v>-0.1622812954377502</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2755936561982214</v>
+        <v>-0.273976800904117</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1063790582990039</v>
+        <v>-0.1118227562683396</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1218192858044852</v>
+        <v>0.1146156590814594</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.0008138049771348716</v>
+        <v>0.02456362417069386</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.2072947892646115</v>
+        <v>0.211859276056617</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.06729540128044338</v>
+        <v>0.06529113811803033</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.116176597969875</v>
+        <v>-0.09987471098484058</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.09010291084514296</v>
+        <v>0.08094195141522563</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.0318171764603541</v>
+        <v>0.03177933538036291</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.09881286614103732</v>
+        <v>-0.1050200739022176</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.09214591035804615</v>
+        <v>0.08239605023386655</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-3.733313024874729</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1.161289395411086</v>
+        <v>1.161289395411083</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-7.679003876868087</v>
@@ -1092,7 +1092,7 @@
         <v>-6.552862082269217</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-1.406436355477703</v>
+        <v>-1.4064363554777</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-6.040736753090627</v>
+        <v>-6.410088764357515</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-7.859655098125794</v>
+        <v>-7.648148418157061</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.024952612614507</v>
+        <v>-3.160559396731827</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-13.44869988743371</v>
+        <v>-13.37200487820524</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-14.92123482990679</v>
+        <v>-15.3282473031595</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-9.70850953739204</v>
+        <v>-9.163838007249609</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-7.778567247374831</v>
+        <v>-7.888925649590887</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-9.97473098150582</v>
+        <v>-10.11937550914439</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-4.53396334741279</v>
+        <v>-4.604117805258234</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.108510960092732</v>
+        <v>2.513971546925648</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1242376150270251</v>
+        <v>0.4760078140008919</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.794816388976405</v>
+        <v>5.386121452360431</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-2.260735355298094</v>
+        <v>-2.317773359505987</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-4.851329963826974</v>
+        <v>-4.837675068771515</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2356746738159606</v>
+        <v>0.2445092830334816</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-0.5134763036828105</v>
+        <v>-0.7679934159303207</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-3.116124177392182</v>
+        <v>-3.421239145293477</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.910571071398808</v>
+        <v>1.831886331876155</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.2430465568987675</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.07560239048725002</v>
+        <v>0.07560239048724984</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.3118535801663235</v>
@@ -1197,7 +1197,7 @@
         <v>-0.3334083524199978</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.07155920911752561</v>
+        <v>-0.07155920911752547</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3556069056177759</v>
+        <v>-0.3786007858708807</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4557689899222536</v>
+        <v>-0.4386516026784817</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1716589414006501</v>
+        <v>-0.1822808685471099</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.492419056459979</v>
+        <v>-0.4861514828037979</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5536808649440659</v>
+        <v>-0.543210121212278</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3512921815783319</v>
+        <v>-0.3339329981248922</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.367574180216874</v>
+        <v>-0.3661244197207602</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.459765385104704</v>
+        <v>-0.4634994969251406</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2106250872801632</v>
+        <v>-0.2108853099202166</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2358473980224944</v>
+        <v>0.1838923177638064</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.04035793286346703</v>
+        <v>0.04111990346074552</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.4591556853841298</v>
+        <v>0.415813586143955</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.1118336274596888</v>
+        <v>-0.1120775066839678</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.2262914447161037</v>
+        <v>-0.2196057205670529</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01322982752880269</v>
+        <v>0.01125771393910868</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.02836560607963727</v>
+        <v>-0.04393981401268432</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.1707164814396029</v>
+        <v>-0.1929119971792156</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.107376208134526</v>
+        <v>0.1037433880543426</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-3.912872249299898</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-2.605315146524998</v>
+        <v>-2.605315146525</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-4.228591098562429</v>
@@ -1297,7 +1297,7 @@
         <v>-7.353332628335196</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-6.163273660288712</v>
+        <v>-6.163273660288715</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-3.229075527377217</v>
@@ -1306,7 +1306,7 @@
         <v>-5.637253632825157</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-4.369244452640175</v>
+        <v>-4.36924445264017</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.062935231221385</v>
+        <v>-4.237633483458612</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-5.74113771021409</v>
+        <v>-5.792553076422318</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.503453668603533</v>
+        <v>-4.590629912704658</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-6.428224439422656</v>
+        <v>-6.180909686638387</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-9.316095904667298</v>
+        <v>-9.30327305564475</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-8.016514899458866</v>
+        <v>-8.107470018190464</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-4.755627619119483</v>
+        <v>-4.617087453028251</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-7.188867593181703</v>
+        <v>-7.114661905513968</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-5.703202465638642</v>
+        <v>-5.806439555563219</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.2952518264864795</v>
+        <v>-0.187663636131586</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-2.00603650764496</v>
+        <v>-2.018977757160857</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.5703035101425764</v>
+        <v>-0.7506688877272444</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-2.208529582757829</v>
+        <v>-1.87443833016254</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-5.272872938948369</v>
+        <v>-5.105223757062243</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-4.183380804610707</v>
+        <v>-4.174636672751494</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-1.79246872621408</v>
+        <v>-1.715809761345834</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-4.3583883797095</v>
+        <v>-4.243512903964945</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-3.032635427934872</v>
+        <v>-2.914042077129269</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.200568337177647</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.1335447961163954</v>
+        <v>-0.1335447961163956</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.1425266723846997</v>
@@ -1402,7 +1402,7 @@
         <v>-0.2478475705089461</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.207736067480219</v>
+        <v>-0.2077360674802191</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.1309056570674712</v>
@@ -1411,7 +1411,7 @@
         <v>-0.2285324033471453</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.1771277293181907</v>
+        <v>-0.1771277293181905</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1992767806939106</v>
+        <v>-0.2075815825833747</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2806485313413777</v>
+        <v>-0.2814475181944928</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2202715362974588</v>
+        <v>-0.2247632563260977</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2072953628375495</v>
+        <v>-0.202884508968124</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3040861152211903</v>
+        <v>-0.3034805109069308</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.259015344272257</v>
+        <v>-0.262805391179744</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1863501109394992</v>
+        <v>-0.1828558220852324</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2801602047358334</v>
+        <v>-0.2793104948235364</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.2234351346530363</v>
+        <v>-0.2271828740565565</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.013963723277281</v>
+        <v>-0.009942895031014433</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.1072608184800386</v>
+        <v>-0.1053024897041875</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.03036145331246435</v>
+        <v>-0.04076685218942701</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.07764332679444057</v>
+        <v>-0.06633265641445331</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.1824644264003877</v>
+        <v>-0.1792650345897462</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.1459361182806549</v>
+        <v>-0.1460530508297717</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.07589174360068301</v>
+        <v>-0.07471362482031844</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.1807019292755208</v>
+        <v>-0.1768788899915701</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.1252349393574121</v>
+        <v>-0.1201472449461676</v>
       </c>
     </row>
     <row r="28">
